--- a/06 日报考勤/考勤表.xlsx
+++ b/06 日报考勤/考勤表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 日报考勤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\woniuboss2.5_yang\06 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38782F66-FA77-4811-8080-835A253ED729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D109FF76-BF67-4CD5-AFDB-B91295D2564D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>考勤表</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>周日</t>
+  </si>
+  <si>
+    <t>√，李朋请假</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,7 +485,9 @@
       <c r="A9" s="2">
         <v>43963</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="2">

--- a/06 日报考勤/考勤表.xlsx
+++ b/06 日报考勤/考勤表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\woniuboss2.5_yang\06 日报考勤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\06 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D109FF76-BF67-4CD5-AFDB-B91295D2564D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A944D-C7A6-44D5-99F2-B7F7332648E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="1524" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>考勤表</t>
   </si>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,9 @@
       <c r="A10" s="2">
         <v>43964</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="2">

--- a/06 日报考勤/考勤表.xlsx
+++ b/06 日报考勤/考勤表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\06 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A944D-C7A6-44D5-99F2-B7F7332648E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADADA2B-C129-4C16-8E9E-4675FFB7C750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="1524" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="456" windowWidth="19800" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>考勤表</t>
   </si>
@@ -501,7 +501,9 @@
       <c r="A11" s="2">
         <v>43965</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="2">

--- a/06 日报考勤/考勤表.xlsx
+++ b/06 日报考勤/考勤表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\06 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADADA2B-C129-4C16-8E9E-4675FFB7C750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F8820-A267-46F6-B13B-87E6CACBB9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="456" windowWidth="19800" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>考勤表</t>
   </si>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,9 @@
       <c r="A12" s="2">
         <v>43966</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="2">

--- a/06 日报考勤/考勤表.xlsx
+++ b/06 日报考勤/考勤表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\06 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F8820-A267-46F6-B13B-87E6CACBB9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519F8CC-574B-4D35-99AC-629C4EA73D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6984" yWindow="456" windowWidth="20292" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>考勤表</t>
   </si>
@@ -114,13 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -409,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,10 +419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -437,7 +436,7 @@
       <c r="A3" s="2">
         <v>43957</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -445,7 +444,7 @@
       <c r="A4" s="2">
         <v>43958</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -453,7 +452,7 @@
       <c r="A5" s="2">
         <v>43959</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -461,7 +460,7 @@
       <c r="A6" s="2">
         <v>43960</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -469,7 +468,7 @@
       <c r="A7" s="2">
         <v>43961</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -477,7 +476,7 @@
       <c r="A8" s="2">
         <v>43962</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -485,7 +484,7 @@
       <c r="A9" s="2">
         <v>43963</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -493,7 +492,7 @@
       <c r="A10" s="2">
         <v>43964</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -501,7 +500,7 @@
       <c r="A11" s="2">
         <v>43965</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -509,7 +508,7 @@
       <c r="A12" s="2">
         <v>43966</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -529,31 +528,41 @@
       <c r="A15" s="2">
         <v>43969</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43970</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43971</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43972</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43973</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
@@ -571,25 +580,33 @@
       <c r="A22" s="2">
         <v>43976</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43977</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43978</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43979</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/06 日报考勤/考勤表.xlsx
+++ b/06 日报考勤/考勤表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\06 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519F8CC-574B-4D35-99AC-629C4EA73D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1B741-5CFC-46C8-A1C4-25E85E7CE0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6984" yWindow="456" windowWidth="20292" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="432" yWindow="1368" windowWidth="20292" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>考勤表</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>√，李朋请假</t>
+  </si>
+  <si>
+    <t>周末</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -516,13 +519,17 @@
       <c r="A13" s="2">
         <v>43967</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43968</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -568,13 +575,17 @@
       <c r="A20" s="2">
         <v>43974</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43975</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
